--- a/InputData/elec/BCRbQ/BAU Cap Retirements_HK.xlsx
+++ b/InputData/elec/BCRbQ/BAU Cap Retirements_HK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman.hennig\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\InputData\elec\BCR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\elec\BCRbQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="102_{1A6315C8-8091-4FF3-9688-A521E2394CA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{99F29272-BE98-4D19-A45C-063956184959}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="102_{1A6315C8-8091-4FF3-9688-A521E2394CA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{99F29272-BE98-4D19-A45C-063956184959}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6705" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="14" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="Solar pv" sheetId="30" r:id="rId11"/>
     <sheet name="BCR" sheetId="2" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,6 +34,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3717,7 +3718,7 @@
   <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -10016,7 +10017,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D26">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -10644,7 +10645,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -10654,6 +10655,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10887,37 +10906,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA9A45F0-2174-4651-A4AA-21A29A32DA51}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1E4517D-4D16-42D6-9794-2E3CC859BA7E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6091D35F-3351-4929-98D7-691DD353B48B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -10933,4 +10922,32 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1E4517D-4D16-42D6-9794-2E3CC859BA7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA9A45F0-2174-4651-A4AA-21A29A32DA51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>